--- a/t/data/stock/propagation_group_ids_upload.xlsx
+++ b/t/data/stock/propagation_group_ids_upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">propagation_group_identifier</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Room 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026/01/25</t>
   </si>
   <si>
     <t xml:space="preserve">test upload</t>
@@ -89,8 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -157,8 +155,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,10 +184,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.31"/>
@@ -236,43 +238,43 @@
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="n">
+        <v>46047</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="1" t="n">
+        <v>46047</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
